--- a/fixtures/07 - vouchers.xlsx
+++ b/fixtures/07 - vouchers.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek Hanzal\Projects\github.com\marek-hanzal\puff-smith\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879E730E-75FC-48A6-8F02-8A311A51C8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1990659-4FD5-4DF2-9319-1B6DBD429350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="1335" windowWidth="23610" windowHeight="18390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabs" sheetId="1" r:id="rId1"/>
-    <sheet name="voucher" sheetId="2" r:id="rId2"/>
+    <sheet name="vouchers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
